--- a/matlab/Data_Import_2017/conversion.xlsx
+++ b/matlab/Data_Import_2017/conversion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\data\WQ_Monitoring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\Data_Import_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD65152-5BF2-418B-8889-ACD6B0D0BF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FE8E6D-3DD3-4F19-BBC5-32ECA6F646E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15990" xr2:uid="{A4A6A1AE-859C-484B-83BC-1D808B2C669C}"/>
   </bookViews>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F2C2A4-46BD-478E-94CB-9A6F5032A956}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,8 +986,8 @@
         <v>76</v>
       </c>
       <c r="C17">
-        <f>1000/31</f>
-        <v>32.258064516129032</v>
+        <f>1/31</f>
+        <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,8 +998,8 @@
         <v>77</v>
       </c>
       <c r="C18">
-        <f>1000/14</f>
-        <v>71.428571428571431</v>
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1021,8 +1021,8 @@
         <v>94</v>
       </c>
       <c r="C20">
-        <f>1000/14</f>
-        <v>71.428571428571431</v>
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>51</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>53</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>54</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>55</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>56</v>
       </c>
@@ -1461,8 +1461,8 @@
         <v>86</v>
       </c>
       <c r="C60">
-        <f>1000/14</f>
-        <v>71.428571428571431</v>
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,8 +1473,8 @@
         <v>88</v>
       </c>
       <c r="C61">
-        <f>1000/31</f>
-        <v>32.258064516129032</v>
+        <f>1/31</f>
+        <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,8 +1485,8 @@
         <v>87</v>
       </c>
       <c r="C62">
-        <f>1000/14</f>
-        <v>71.428571428571431</v>
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1497,8 +1497,8 @@
         <v>89</v>
       </c>
       <c r="C63">
-        <f>1000/31</f>
-        <v>32.258064516129032</v>
+        <f>1/31</f>
+        <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1509,8 +1509,8 @@
         <v>90</v>
       </c>
       <c r="C64">
-        <f>1000/14</f>
-        <v>71.428571428571431</v>
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,8 +1521,8 @@
         <v>91</v>
       </c>
       <c r="C65">
-        <f>1000/31</f>
-        <v>32.258064516129032</v>
+        <f>1/31</f>
+        <v>3.2258064516129031E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,11 +1533,11 @@
         <v>72</v>
       </c>
       <c r="C66">
-        <f>1000/14</f>
-        <v>71.428571428571431</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>64</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>14</v>
       </c>
